--- a/2025 English Course List.xlsx
+++ b/2025 English Course List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cch031/Documents/GitHub/UiOIFI-SKKU/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/changkyuchoi/Documents/GitHub/UiOIFI-SKKU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5001F391-5A3F-324F-B64B-01897A9C528A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8486E27-9432-9D4C-A2E2-D640392EE8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23620" windowHeight="27060" activeTab="1" xr2:uid="{C5B615ED-2906-49ED-A258-1327E5123EF1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22800" windowHeight="13440" activeTab="1" xr2:uid="{C5B615ED-2906-49ED-A258-1327E5123EF1}"/>
   </bookViews>
   <sheets>
     <sheet name="25-spring_edit" sheetId="3" r:id="rId1"/>
@@ -25444,7 +25444,7 @@
   <dimension ref="A1:H641"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <selection activeCell="D649" sqref="D649"/>
+      <selection activeCell="D646" sqref="D646"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" customHeight="1"/>
@@ -31308,29 +31308,29 @@
         <v>857</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="18" hidden="1" customHeight="1">
+    <row r="226" spans="1:8" s="53" customFormat="1" ht="18" hidden="1" customHeight="1">
       <c r="A226" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>1372</v>
       </c>
-      <c r="C226" s="4" t="s">
+      <c r="C226" s="49" t="s">
         <v>328</v>
       </c>
-      <c r="D226" s="5" t="s">
+      <c r="D226" s="78" t="s">
         <v>329</v>
       </c>
       <c r="E226" s="5" t="s">
         <v>795</v>
       </c>
-      <c r="F226" s="6">
+      <c r="F226" s="79">
         <v>1</v>
       </c>
-      <c r="G226" s="5" t="s">
+      <c r="G226" s="78" t="s">
         <v>803</v>
       </c>
-      <c r="H226" s="5" t="s">
+      <c r="H226" s="78" t="s">
         <v>809</v>
       </c>
     </row>
@@ -31386,29 +31386,29 @@
         <v>809</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="18" hidden="1" customHeight="1">
+    <row r="229" spans="1:8" s="53" customFormat="1" ht="18" hidden="1" customHeight="1">
       <c r="A229" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>1372</v>
       </c>
-      <c r="C229" s="4" t="s">
+      <c r="C229" s="49" t="s">
         <v>332</v>
       </c>
-      <c r="D229" s="5" t="s">
+      <c r="D229" s="78" t="s">
         <v>333</v>
       </c>
       <c r="E229" s="5" t="s">
         <v>795</v>
       </c>
-      <c r="F229" s="6">
-        <v>3</v>
-      </c>
-      <c r="G229" s="5" t="s">
+      <c r="F229" s="79">
+        <v>3</v>
+      </c>
+      <c r="G229" s="78" t="s">
         <v>803</v>
       </c>
-      <c r="H229" s="5" t="s">
+      <c r="H229" s="78" t="s">
         <v>809</v>
       </c>
     </row>
@@ -31464,29 +31464,29 @@
         <v>809</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="18" hidden="1" customHeight="1">
+    <row r="232" spans="1:8" s="53" customFormat="1" ht="18" hidden="1" customHeight="1">
       <c r="A232" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>1372</v>
       </c>
-      <c r="C232" s="4" t="s">
+      <c r="C232" s="49" t="s">
         <v>1120</v>
       </c>
-      <c r="D232" s="5" t="s">
+      <c r="D232" s="78" t="s">
         <v>1121</v>
       </c>
       <c r="E232" s="5" t="s">
         <v>795</v>
       </c>
-      <c r="F232" s="6">
-        <v>3</v>
-      </c>
-      <c r="G232" s="5" t="s">
+      <c r="F232" s="79">
+        <v>3</v>
+      </c>
+      <c r="G232" s="78" t="s">
         <v>803</v>
       </c>
-      <c r="H232" s="5" t="s">
+      <c r="H232" s="78" t="s">
         <v>809</v>
       </c>
     </row>
@@ -31620,29 +31620,29 @@
         <v>809</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="18" hidden="1" customHeight="1">
+    <row r="238" spans="1:8" s="53" customFormat="1" ht="18" hidden="1" customHeight="1">
       <c r="A238" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>1372</v>
       </c>
-      <c r="C238" s="4" t="s">
+      <c r="C238" s="49" t="s">
         <v>342</v>
       </c>
-      <c r="D238" s="5" t="s">
+      <c r="D238" s="78" t="s">
         <v>343</v>
       </c>
       <c r="E238" s="5" t="s">
         <v>795</v>
       </c>
-      <c r="F238" s="6">
-        <v>3</v>
-      </c>
-      <c r="G238" s="5" t="s">
+      <c r="F238" s="79">
+        <v>3</v>
+      </c>
+      <c r="G238" s="78" t="s">
         <v>803</v>
       </c>
-      <c r="H238" s="5" t="s">
+      <c r="H238" s="78" t="s">
         <v>809</v>
       </c>
     </row>
@@ -39706,59 +39706,59 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="549" spans="1:8" ht="18" customHeight="1">
+    <row r="549" spans="1:8" s="53" customFormat="1" ht="18" hidden="1" customHeight="1">
       <c r="A549" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B549" s="2" t="s">
         <v>1372</v>
       </c>
-      <c r="C549" s="4" t="s">
+      <c r="C549" s="49" t="s">
         <v>1238</v>
       </c>
-      <c r="D549" s="5" t="s">
+      <c r="D549" s="78" t="s">
         <v>1239</v>
       </c>
       <c r="E549" s="5" t="s">
         <v>795</v>
       </c>
-      <c r="F549" s="6">
-        <v>3</v>
-      </c>
-      <c r="G549" s="5" t="s">
+      <c r="F549" s="79">
+        <v>3</v>
+      </c>
+      <c r="G549" s="78" t="s">
         <v>823</v>
       </c>
-      <c r="H549" s="5" t="s">
+      <c r="H549" s="78" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="550" spans="1:8" ht="18" customHeight="1">
+    <row r="550" spans="1:8" s="53" customFormat="1" ht="18" hidden="1" customHeight="1">
       <c r="A550" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B550" s="2" t="s">
         <v>1372</v>
       </c>
-      <c r="C550" s="4" t="s">
+      <c r="C550" s="49" t="s">
         <v>1240</v>
       </c>
-      <c r="D550" s="5" t="s">
+      <c r="D550" s="78" t="s">
         <v>1241</v>
       </c>
       <c r="E550" s="5" t="s">
         <v>795</v>
       </c>
-      <c r="F550" s="6">
-        <v>3</v>
-      </c>
-      <c r="G550" s="5" t="s">
+      <c r="F550" s="79">
+        <v>3</v>
+      </c>
+      <c r="G550" s="78" t="s">
         <v>823</v>
       </c>
-      <c r="H550" s="5" t="s">
+      <c r="H550" s="78" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="551" spans="1:8" ht="18" customHeight="1">
+    <row r="551" spans="1:8" ht="18" hidden="1" customHeight="1">
       <c r="A551" s="4" t="s">
         <v>0</v>
       </c>
@@ -39784,55 +39784,55 @@
         <v>824</v>
       </c>
     </row>
-    <row r="552" spans="1:8" ht="18" hidden="1" customHeight="1">
+    <row r="552" spans="1:8" s="53" customFormat="1" ht="18" hidden="1" customHeight="1">
       <c r="A552" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B552" s="2" t="s">
         <v>1372</v>
       </c>
-      <c r="C552" s="4" t="s">
+      <c r="C552" s="49" t="s">
         <v>1244</v>
       </c>
-      <c r="D552" s="5" t="s">
+      <c r="D552" s="78" t="s">
         <v>1245</v>
       </c>
       <c r="E552" s="5" t="s">
         <v>795</v>
       </c>
-      <c r="F552" s="6">
-        <v>3</v>
-      </c>
-      <c r="G552" s="5" t="s">
+      <c r="F552" s="79">
+        <v>3</v>
+      </c>
+      <c r="G552" s="78" t="s">
         <v>1379</v>
       </c>
-      <c r="H552" s="5" t="s">
+      <c r="H552" s="78" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="553" spans="1:8" ht="18" hidden="1" customHeight="1">
+    <row r="553" spans="1:8" s="53" customFormat="1" ht="18" hidden="1" customHeight="1">
       <c r="A553" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B553" s="2" t="s">
         <v>1372</v>
       </c>
-      <c r="C553" s="4" t="s">
+      <c r="C553" s="49" t="s">
         <v>599</v>
       </c>
-      <c r="D553" s="5" t="s">
+      <c r="D553" s="78" t="s">
         <v>600</v>
       </c>
       <c r="E553" s="5" t="s">
         <v>795</v>
       </c>
-      <c r="F553" s="6">
-        <v>3</v>
-      </c>
-      <c r="G553" s="5" t="s">
+      <c r="F553" s="79">
+        <v>3</v>
+      </c>
+      <c r="G553" s="78" t="s">
         <v>1379</v>
       </c>
-      <c r="H553" s="5" t="s">
+      <c r="H553" s="78" t="s">
         <v>829</v>
       </c>
     </row>
@@ -39888,29 +39888,29 @@
         <v>829</v>
       </c>
     </row>
-    <row r="556" spans="1:8" ht="18" hidden="1" customHeight="1">
+    <row r="556" spans="1:8" s="53" customFormat="1" ht="18" hidden="1" customHeight="1">
       <c r="A556" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B556" s="2" t="s">
         <v>1372</v>
       </c>
-      <c r="C556" s="4" t="s">
+      <c r="C556" s="49" t="s">
         <v>1248</v>
       </c>
-      <c r="D556" s="5" t="s">
+      <c r="D556" s="78" t="s">
         <v>1249</v>
       </c>
       <c r="E556" s="5" t="s">
         <v>795</v>
       </c>
-      <c r="F556" s="6">
-        <v>3</v>
-      </c>
-      <c r="G556" s="5" t="s">
+      <c r="F556" s="79">
+        <v>3</v>
+      </c>
+      <c r="G556" s="78" t="s">
         <v>1379</v>
       </c>
-      <c r="H556" s="5" t="s">
+      <c r="H556" s="78" t="s">
         <v>829</v>
       </c>
     </row>
@@ -40304,7 +40304,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="572" spans="1:8" ht="18" hidden="1" customHeight="1">
+    <row r="572" spans="1:8" ht="18" customHeight="1">
       <c r="A572" s="4" t="s">
         <v>0</v>
       </c>
@@ -40330,33 +40330,33 @@
         <v>852</v>
       </c>
     </row>
-    <row r="573" spans="1:8" ht="18" hidden="1" customHeight="1">
+    <row r="573" spans="1:8" s="53" customFormat="1" ht="18" customHeight="1">
       <c r="A573" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B573" s="2" t="s">
         <v>1372</v>
       </c>
-      <c r="C573" s="4" t="s">
+      <c r="C573" s="49" t="s">
         <v>1282</v>
       </c>
-      <c r="D573" s="5" t="s">
+      <c r="D573" s="78" t="s">
         <v>1283</v>
       </c>
       <c r="E573" s="5" t="s">
         <v>795</v>
       </c>
-      <c r="F573" s="6">
-        <v>3</v>
-      </c>
-      <c r="G573" s="5" t="s">
+      <c r="F573" s="79">
+        <v>3</v>
+      </c>
+      <c r="G573" s="78" t="s">
         <v>850</v>
       </c>
-      <c r="H573" s="5" t="s">
+      <c r="H573" s="78" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="574" spans="1:8" ht="18" hidden="1" customHeight="1">
+    <row r="574" spans="1:8" ht="18" customHeight="1">
       <c r="A574" s="4" t="s">
         <v>0</v>
       </c>
@@ -40382,7 +40382,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="575" spans="1:8" ht="18" hidden="1" customHeight="1">
+    <row r="575" spans="1:8" ht="18" customHeight="1">
       <c r="A575" s="4" t="s">
         <v>0</v>
       </c>
@@ -40408,7 +40408,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="576" spans="1:8" ht="18" hidden="1" customHeight="1">
+    <row r="576" spans="1:8" ht="18" customHeight="1">
       <c r="A576" s="4" t="s">
         <v>0</v>
       </c>
@@ -40434,7 +40434,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="577" spans="1:8" ht="18" hidden="1" customHeight="1">
+    <row r="577" spans="1:8" ht="18" customHeight="1">
       <c r="A577" s="4" t="s">
         <v>0</v>
       </c>
@@ -40460,7 +40460,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="578" spans="1:8" ht="18" hidden="1" customHeight="1">
+    <row r="578" spans="1:8" ht="18" customHeight="1">
       <c r="A578" s="4" t="s">
         <v>0</v>
       </c>
@@ -40486,33 +40486,33 @@
         <v>852</v>
       </c>
     </row>
-    <row r="579" spans="1:8" ht="18" hidden="1" customHeight="1">
+    <row r="579" spans="1:8" s="53" customFormat="1" ht="18" customHeight="1">
       <c r="A579" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B579" s="2" t="s">
         <v>1372</v>
       </c>
-      <c r="C579" s="4" t="s">
+      <c r="C579" s="49" t="s">
         <v>1294</v>
       </c>
-      <c r="D579" s="5" t="s">
+      <c r="D579" s="78" t="s">
         <v>1295</v>
       </c>
       <c r="E579" s="5" t="s">
         <v>795</v>
       </c>
-      <c r="F579" s="6">
-        <v>3</v>
-      </c>
-      <c r="G579" s="5" t="s">
+      <c r="F579" s="79">
+        <v>3</v>
+      </c>
+      <c r="G579" s="78" t="s">
         <v>850</v>
       </c>
-      <c r="H579" s="5" t="s">
+      <c r="H579" s="78" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="580" spans="1:8" ht="18" hidden="1" customHeight="1">
+    <row r="580" spans="1:8" ht="18" customHeight="1">
       <c r="A580" s="4" t="s">
         <v>0</v>
       </c>
@@ -40538,7 +40538,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="581" spans="1:8" ht="18" hidden="1" customHeight="1">
+    <row r="581" spans="1:8" ht="18" customHeight="1">
       <c r="A581" s="4" t="s">
         <v>0</v>
       </c>
@@ -40564,7 +40564,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="582" spans="1:8" ht="18" hidden="1" customHeight="1">
+    <row r="582" spans="1:8" ht="18" customHeight="1">
       <c r="A582" s="4" t="s">
         <v>0</v>
       </c>
@@ -42128,7 +42128,7 @@
   <autoFilter ref="A1:H641" xr:uid="{1B5ACCE8-5602-DD4E-8144-0C72E6F04D98}">
     <filterColumn colId="7">
       <filters>
-        <filter val="Mathmatics Education"/>
+        <filter val="Physics"/>
       </filters>
     </filterColumn>
   </autoFilter>
